--- a/rnaSample/rnaSample_J.PLAGGENBERG_10.28.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_10.28.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -87,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -116,6 +116,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -173,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,6 +193,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -213,8 +223,8 @@
   </sheetPr>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -222,14 +232,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -275,37 +285,40 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="b">
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="b">
+      <c r="K2" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -333,31 +346,34 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="n">
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="b">
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4" t="b">
+      <c r="K3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -371,31 +387,34 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="b">
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4" t="b">
+      <c r="K4" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -409,31 +428,34 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="b">
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="4" t="b">
+      <c r="K5" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -447,31 +469,34 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="4" t="b">
+      <c r="K6" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -485,31 +510,34 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="n">
         <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="b">
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="4" t="b">
+      <c r="K7" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -523,31 +551,34 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="n">
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="b">
+      <c r="H8" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="4" t="b">
+      <c r="K8" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -561,31 +592,34 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="b">
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="4" t="b">
+      <c r="K9" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -599,31 +633,34 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="n">
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="b">
+      <c r="H10" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4" t="b">
+      <c r="K10" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -637,31 +674,34 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="n">
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="b">
+      <c r="H11" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="4" t="b">
+      <c r="K11" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -675,31 +715,34 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="n">
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>71</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="b">
+      <c r="H12" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="4" t="b">
+      <c r="K12" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -713,31 +756,34 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="n">
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="n">
         <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="b">
+      <c r="H13" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="4" t="b">
+      <c r="K13" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -751,31 +797,34 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="b">
+      <c r="H14" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="4" t="b">
+      <c r="K14" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -789,31 +838,34 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3" t="n">
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="4" t="n">
         <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="b">
+      <c r="H15" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="4" t="b">
+      <c r="K15" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -827,31 +879,34 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="n">
         <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="b">
+      <c r="H16" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="4" t="b">
+      <c r="K16" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -865,31 +920,34 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3" t="n">
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="n">
         <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="b">
+      <c r="H17" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="4" t="b">
+      <c r="K17" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -903,31 +961,34 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="3" t="n">
+      <c r="E18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4" t="n">
         <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="b">
+      <c r="H18" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="4" t="b">
+      <c r="K18" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -941,31 +1002,34 @@
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3" t="n">
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4" t="n">
         <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="b">
+      <c r="H19" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="4" t="b">
+      <c r="K19" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -979,31 +1043,34 @@
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3" t="n">
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="n">
         <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="b">
+      <c r="H20" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="4" t="b">
+      <c r="K20" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -1017,31 +1084,34 @@
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="3" t="n">
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="n">
         <v>80</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="b">
+      <c r="H21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="4" t="b">
+      <c r="K21" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_10.28.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_10.28.19.xlsx
@@ -122,6 +122,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -179,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,6 +199,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -224,10 +229,10 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
@@ -306,18 +311,17 @@
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="n">
+      <c r="H2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -361,18 +365,17 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="n">
+      <c r="H3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -402,18 +405,17 @@
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
+      <c r="H4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -443,18 +445,17 @@
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="H5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -484,18 +485,17 @@
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -525,18 +525,17 @@
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
+      <c r="H7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -566,18 +565,17 @@
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="n">
+      <c r="H8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -607,18 +605,17 @@
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="n">
+      <c r="H9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -648,18 +645,17 @@
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="n">
+      <c r="H10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -689,18 +685,17 @@
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="n">
+      <c r="H11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -730,18 +725,17 @@
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="n">
+      <c r="H12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -771,18 +765,17 @@
       <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="n">
+      <c r="H13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -812,18 +805,17 @@
       <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="n">
+      <c r="H14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -853,18 +845,17 @@
       <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="n">
+      <c r="H15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -894,18 +885,17 @@
       <c r="G16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="n">
+      <c r="H16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -935,18 +925,17 @@
       <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="n">
+      <c r="H17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -976,18 +965,17 @@
       <c r="G18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5" t="n">
+      <c r="H18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1017,18 +1005,17 @@
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="5" t="n">
+      <c r="H19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1058,18 +1045,17 @@
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="5" t="n">
+      <c r="H20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1099,18 +1085,17 @@
       <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="5" t="n">
+      <c r="H21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
